--- a/myapp/app-33/data.xlsx
+++ b/myapp/app-33/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -163,6 +163,15 @@
     <t>user17@test.com</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user18@test.com</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -229,6 +238,15 @@
     <t>2024-07-24 17:19:31</t>
   </si>
   <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>ffffffff</t>
+  </si>
+  <si>
+    <t>2024-07-24 17:33:41</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -277,13 +295,19 @@
     <t>2,5,12</t>
   </si>
   <si>
-    <t>p4</t>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
   </si>
   <si>
     <t>2024-5-5</t>
   </si>
   <si>
-    <t>2024-6-6</t>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -328,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -538,6 +562,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -545,7 +586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -573,16 +614,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -590,13 +631,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>5</v>
@@ -604,36 +645,36 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -641,16 +682,33 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -691,19 +749,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -711,56 +769,56 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="D5" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>10</v>
@@ -771,19 +829,39 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
